--- a/balance-de-energia_v1_balance-nacional_consumo-final.xlsx
+++ b/balance-de-energia_v1_balance-nacional_consumo-final.xlsx
@@ -401,7 +401,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -411,29 +411,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sector Energético: Auto Consumo</t>
+          <t>Sector Comercial, Público y Residencial</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Petróleo Combustible</t>
+          <t>Petróleo Crudo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>30.06</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,29 +443,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sector Energético: Auto Consumo</t>
+          <t>Sector Comercial, Público y Residencial</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Gasolina de motor</t>
+          <t>Gas Natural</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>7028.14</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -475,29 +475,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sector Energético: Auto Consumo</t>
+          <t>Sector Comercial, Público y Residencial</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Gas Licuado</t>
+          <t>Carbón</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>95.33</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -507,29 +507,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sector Energético: Auto Consumo</t>
+          <t>Sector Comercial, Público y Residencial</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Gasolina de Aviación</t>
+          <t>Biomasa</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>18084.97</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -539,17 +539,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sector Energético: Auto Consumo</t>
+          <t>Sector Comercial, Público y Residencial</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Kerosene de Aviación</t>
+          <t>Energía Hídrica</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -571,17 +571,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sector Energético: Auto Consumo</t>
+          <t>Sector Comercial, Público y Residencial</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Energía Eólica</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -593,7 +593,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -603,29 +603,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sector Energético: Auto Consumo</t>
+          <t>Sector Comercial, Público y Residencial</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Gas de Refinería</t>
+          <t>Energía Solar</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -635,29 +635,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sector Energético: Auto Consumo</t>
+          <t>Sector Comercial, Público y Residencial</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Electricidad</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Electricidad</t>
+          <t>Biogás</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3011.96</t>
+          <t>135.39</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -667,29 +667,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sector Energético: Auto Consumo</t>
+          <t>Sector Comercial, Público y Residencial</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Derivados De Carbón</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Gas Coque</t>
+          <t>Geotermia</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>234.74</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -699,29 +699,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sector Energético: Auto Consumo</t>
+          <t>Sector Comercial, Público y Residencial</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Derivados De Carbón</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Gas de Altos Hornos</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>491.19</t>
+          <t>3176.87</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -731,29 +731,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sector Energético: Auto Consumo</t>
+          <t>Sector Comercial, Público y Residencial</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Metanol</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Metanol</t>
+          <t>Petróleo Combustible</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>46.55</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -763,17 +763,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sector Industrial y Minero</t>
+          <t>Sector Comercial, Público y Residencial</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Petróleo Crudo</t>
+          <t>Gasolina de motor</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -785,7 +785,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -795,29 +795,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sector Industrial y Minero</t>
+          <t>Sector Comercial, Público y Residencial</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Gas Natural</t>
+          <t>Kerosene</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>8931.69</t>
+          <t>1347.36</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -827,29 +827,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sector Industrial y Minero</t>
+          <t>Sector Comercial, Público y Residencial</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Carbón</t>
+          <t>Gas Licuado</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1511.45</t>
+          <t>13131.58</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -859,29 +859,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sector Industrial y Minero</t>
+          <t>Sector Comercial, Público y Residencial</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Biomasa</t>
+          <t>Gasolina de Aviación</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>20060.23</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -891,29 +891,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sector Industrial y Minero</t>
+          <t>Sector Comercial, Público y Residencial</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Energía Hídrica</t>
+          <t>Kerosene de Aviación</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>8.82</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -923,17 +923,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sector Industrial y Minero</t>
+          <t>Sector Comercial, Público y Residencial</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Energía Eólica</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -955,17 +955,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sector Industrial y Minero</t>
+          <t>Sector Comercial, Público y Residencial</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Energía Solar</t>
+          <t>Gas de Refinería</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -977,7 +977,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -987,29 +987,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sector Industrial y Minero</t>
+          <t>Sector Comercial, Público y Residencial</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Biogás</t>
+          <t>Coque de Petróleo</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>13.62</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sector Industrial y Minero</t>
+          <t>Sector Comercial, Público y Residencial</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Geotermia</t>
+          <t>D.I. de Petróleo</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1051,29 +1051,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Sector Industrial y Minero</t>
+          <t>Sector Comercial, Público y Residencial</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Electricidad</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Electricidad</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>31977.96</t>
+          <t>22278.42</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1083,29 +1083,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Sector Industrial y Minero</t>
+          <t>Sector Comercial, Público y Residencial</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Derivados De Carbón</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Petróleo Combustible</t>
+          <t>Coque Mineral</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4329.76</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1115,17 +1115,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Sector Industrial y Minero</t>
+          <t>Sector Comercial, Público y Residencial</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Derivados De Carbón</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Gasolina de motor</t>
+          <t>Gas Coque</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1137,7 +1137,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1147,29 +1147,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Sector Industrial y Minero</t>
+          <t>Sector Comercial, Público y Residencial</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Derivados De Carbón</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Kerosene</t>
+          <t>Alquitrán</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>138.05</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1179,29 +1179,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Sector Industrial y Minero</t>
+          <t>Sector Comercial, Público y Residencial</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Derivados De Carbón</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Gas Licuado</t>
+          <t>Gas de Altos Hornos</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3077.11</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1211,29 +1211,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Sector Industrial y Minero</t>
+          <t>Sector Comercial, Público y Residencial</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Gas Corriente</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Gasolina de Aviación</t>
+          <t>Gas Corriente</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1243,29 +1243,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sector Industrial y Minero</t>
+          <t>Sector Comercial, Público y Residencial</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Metanol</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Kerosene de Aviación</t>
+          <t>Metanol</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>457.57</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1275,17 +1275,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Sector Industrial y Minero</t>
+          <t>Sector Transporte</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Petróleo Crudo</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1297,7 +1297,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1307,29 +1307,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Sector Industrial y Minero</t>
+          <t>Sector Transporte</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Gas de Refinería</t>
+          <t>Gas Natural</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>80.78</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1339,29 +1339,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Sector Industrial y Minero</t>
+          <t>Sector Transporte</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Coque de Petróleo</t>
+          <t>Carbón</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2313.71</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1371,17 +1371,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Sector Industrial y Minero</t>
+          <t>Sector Transporte</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>D.I. de Petróleo</t>
+          <t>Biomasa</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1393,7 +1393,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1403,29 +1403,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Sector Industrial y Minero</t>
+          <t>Sector Transporte</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Electricidad</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Electricidad</t>
+          <t>Energía Hídrica</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>40373.97</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1435,29 +1435,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Sector Industrial y Minero</t>
+          <t>Sector Transporte</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Derivados De Carbón</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Coque Mineral</t>
+          <t>Energía Eólica</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>72.83</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1467,29 +1467,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Sector Industrial y Minero</t>
+          <t>Sector Transporte</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Derivados De Carbón</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Gas Coque</t>
+          <t>Energía Solar</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>613.19</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1499,17 +1499,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Sector Industrial y Minero</t>
+          <t>Sector Transporte</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Derivados De Carbón</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Alquitrán</t>
+          <t>Biogás</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1531,29 +1531,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Sector Industrial y Minero</t>
+          <t>Sector Transporte</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Derivados De Carbón</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Gas de Altos Hornos</t>
+          <t>Geotermia</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>71.21</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1563,29 +1563,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Sector Industrial y Minero</t>
+          <t>Sector Transporte</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Gas Corriente</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Gas Corriente</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>52691.12</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1595,29 +1595,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Sector Industrial y Minero</t>
+          <t>Sector Transporte</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Metanol</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Metanol</t>
+          <t>Petróleo Combustible</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>891.5</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1627,29 +1627,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Construcción</t>
+          <t>Sector Transporte</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Petróleo Crudo</t>
+          <t>Gasolina de motor</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>31411.94</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1659,29 +1659,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Construcción</t>
+          <t>Sector Transporte</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Gas Natural</t>
+          <t>Kerosene</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>465.69</t>
+          <t>82.29</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1691,29 +1691,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Construcción</t>
+          <t>Sector Transporte</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Carbón</t>
+          <t>Gas Licuado</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>154.44</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1723,29 +1723,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Construcción</t>
+          <t>Sector Transporte</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Biomasa</t>
+          <t>Gasolina de Aviación</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>50.64</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1755,29 +1755,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Construcción</t>
+          <t>Sector Transporte</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Energía Hídrica</t>
+          <t>Kerosene de Aviación</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>7735.49</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1787,17 +1787,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Construcción</t>
+          <t>Sector Transporte</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Energía Eólica</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1809,7 +1809,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1819,17 +1819,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Construcción</t>
+          <t>Sector Transporte</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Energía Solar</t>
+          <t>Gas de Refinería</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1841,7 +1841,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1851,17 +1851,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Construcción</t>
+          <t>Sector Transporte</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Biogás</t>
+          <t>Coque de Petróleo</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1873,7 +1873,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1883,17 +1883,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Construcción</t>
+          <t>Sector Transporte</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Geotermia</t>
+          <t>D.I. de Petróleo</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1905,7 +1905,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1915,29 +1915,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Construcción</t>
+          <t>Sector Transporte</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Electricidad</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Electricidad</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1853.95</t>
+          <t>965.4</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1947,29 +1947,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Construcción</t>
+          <t>Sector Transporte</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Derivados De Carbón</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Petróleo Combustible</t>
+          <t>Coque Mineral</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>30.68</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1979,17 +1979,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Construcción</t>
+          <t>Sector Transporte</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Derivados De Carbón</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Gasolina de motor</t>
+          <t>Gas Coque</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2001,7 +2001,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2011,29 +2011,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Construcción</t>
+          <t>Sector Transporte</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Derivados De Carbón</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Kerosene</t>
+          <t>Alquitrán</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2043,29 +2043,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Construcción</t>
+          <t>Sector Transporte</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Derivados De Carbón</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Gas Licuado</t>
+          <t>Gas de Altos Hornos</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>26.86</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2075,29 +2075,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Construcción</t>
+          <t>Sector Transporte</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Gas Corriente</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Gasolina de Aviación</t>
+          <t>Gas Corriente</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2107,29 +2107,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Construcción</t>
+          <t>Sector Transporte</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Metanol</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Kerosene de Aviación</t>
+          <t>Metanol</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Petróleo Crudo</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2161,7 +2161,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2176,24 +2176,24 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Gas de Refinería</t>
+          <t>Gas Natural</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>438.61</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2208,12 +2208,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Coque de Petróleo</t>
+          <t>Carbón</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2225,7 +2225,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2240,12 +2240,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>D.I. de Petróleo</t>
+          <t>Biomasa</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2257,7 +2257,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2272,24 +2272,24 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Electricidad</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Electricidad</t>
+          <t>Energía Hídrica</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>155.13</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2304,12 +2304,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Derivados De Carbón</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Coque Mineral</t>
+          <t>Energía Eólica</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2321,7 +2321,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2336,12 +2336,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Derivados De Carbón</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Gas Coque</t>
+          <t>Energía Solar</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2353,7 +2353,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2368,12 +2368,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Derivados De Carbón</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Alquitrán</t>
+          <t>Biogás</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2385,7 +2385,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2400,12 +2400,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Derivados De Carbón</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Gas de Altos Hornos</t>
+          <t>Geotermia</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2417,7 +2417,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2432,24 +2432,24 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Gas Corriente</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Gas Corriente</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1625.36</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2464,24 +2464,24 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Metanol</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Metanol</t>
+          <t>Petróleo Combustible</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>51.03</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2491,17 +2491,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Sector Transporte</t>
+          <t>Construcción</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Petróleo Crudo</t>
+          <t>Gasolina de motor</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2513,7 +2513,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2523,29 +2523,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Sector Transporte</t>
+          <t>Construcción</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Gas Natural</t>
+          <t>Kerosene</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>154.58</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2555,29 +2555,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Sector Transporte</t>
+          <t>Construcción</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Carbón</t>
+          <t>Gas Licuado</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>25.57</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2587,29 +2587,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Sector Transporte</t>
+          <t>Construcción</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Biomasa</t>
+          <t>Gasolina de Aviación</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.08</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2619,29 +2619,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Sector Transporte</t>
+          <t>Construcción</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Energía Hídrica</t>
+          <t>Kerosene de Aviación</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>3.68</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2651,17 +2651,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Sector Transporte</t>
+          <t>Construcción</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Energía Eólica</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2673,7 +2673,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2683,17 +2683,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Sector Transporte</t>
+          <t>Construcción</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Energía Solar</t>
+          <t>Gas de Refinería</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2705,7 +2705,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2715,17 +2715,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Sector Transporte</t>
+          <t>Construcción</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Biogás</t>
+          <t>Coque de Petróleo</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2737,7 +2737,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2747,17 +2747,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Sector Transporte</t>
+          <t>Construcción</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Geotermia</t>
+          <t>D.I. de Petróleo</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2769,7 +2769,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2779,29 +2779,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Sector Transporte</t>
+          <t>Construcción</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Electricidad</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Electricidad</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>53531.98</t>
+          <t>48.7</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2811,29 +2811,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Sector Transporte</t>
+          <t>Construcción</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Derivados De Carbón</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Petróleo Combustible</t>
+          <t>Coque Mineral</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2771.68</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2843,29 +2843,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Sector Transporte</t>
+          <t>Construcción</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Derivados De Carbón</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Gasolina de motor</t>
+          <t>Gas Coque</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>37955.84</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2875,29 +2875,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Sector Transporte</t>
+          <t>Construcción</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Derivados De Carbón</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Kerosene</t>
+          <t>Alquitrán</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>82.25</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2907,29 +2907,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Sector Transporte</t>
+          <t>Construcción</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Derivados De Carbón</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Gas Licuado</t>
+          <t>Gas de Altos Hornos</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>136.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2939,29 +2939,29 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Sector Transporte</t>
+          <t>Construcción</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Gas Corriente</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Gasolina de Aviación</t>
+          <t>Gas Corriente</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>58.71</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2971,29 +2971,29 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Sector Transporte</t>
+          <t>Construcción</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Metanol</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Kerosene de Aviación</t>
+          <t>Metanol</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>14438.41</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3003,17 +3003,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Sector Transporte</t>
+          <t>Sector Industrial y Minero</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Petróleo Crudo</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3025,7 +3025,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3035,29 +3035,29 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Sector Transporte</t>
+          <t>Sector Industrial y Minero</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Gas de Refinería</t>
+          <t>Gas Natural</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>8762.24</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3067,29 +3067,29 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Sector Transporte</t>
+          <t>Sector Industrial y Minero</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Coque de Petróleo</t>
+          <t>Carbón</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1486.52</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3099,29 +3099,29 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Sector Transporte</t>
+          <t>Sector Industrial y Minero</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>D.I. de Petróleo</t>
+          <t>Biomasa</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>18321.31</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3131,29 +3131,29 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Sector Transporte</t>
+          <t>Sector Industrial y Minero</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Electricidad</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Electricidad</t>
+          <t>Energía Hídrica</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1204.86</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3163,17 +3163,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Sector Transporte</t>
+          <t>Sector Industrial y Minero</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Derivados De Carbón</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Coque Mineral</t>
+          <t>Energía Eólica</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3185,7 +3185,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3195,17 +3195,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Sector Transporte</t>
+          <t>Sector Industrial y Minero</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Derivados De Carbón</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Gas Coque</t>
+          <t>Energía Solar</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3217,7 +3217,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3227,29 +3227,29 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Sector Transporte</t>
+          <t>Sector Industrial y Minero</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Derivados De Carbón</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Alquitrán</t>
+          <t>Biogás</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>7.92</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3259,17 +3259,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Sector Transporte</t>
+          <t>Sector Industrial y Minero</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Derivados De Carbón</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Gas de Altos Hornos</t>
+          <t>Geotermia</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3281,7 +3281,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3291,29 +3291,29 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Sector Transporte</t>
+          <t>Sector Industrial y Minero</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Gas Corriente</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Gas Corriente</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>31447.43</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3323,29 +3323,29 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Sector Transporte</t>
+          <t>Sector Industrial y Minero</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Metanol</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Metanol</t>
+          <t>Petróleo Combustible</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>4610.39</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3355,17 +3355,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Sector Comercial, Público y Residencial</t>
+          <t>Sector Industrial y Minero</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Petróleo Crudo</t>
+          <t>Gasolina de motor</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3377,7 +3377,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3387,29 +3387,29 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Sector Comercial, Público y Residencial</t>
+          <t>Sector Industrial y Minero</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Gas Natural</t>
+          <t>Kerosene</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>7286.17</t>
+          <t>145.69</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3419,29 +3419,29 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Sector Comercial, Público y Residencial</t>
+          <t>Sector Industrial y Minero</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Carbón</t>
+          <t>Gas Licuado</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>3378.41</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3451,29 +3451,29 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Sector Comercial, Público y Residencial</t>
+          <t>Sector Industrial y Minero</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Biomasa</t>
+          <t>Gasolina de Aviación</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>18042.62</t>
+          <t>0.67</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3483,29 +3483,29 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Sector Comercial, Público y Residencial</t>
+          <t>Sector Industrial y Minero</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Energía Hídrica</t>
+          <t>Kerosene de Aviación</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>469.69</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3515,17 +3515,17 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Sector Comercial, Público y Residencial</t>
+          <t>Sector Industrial y Minero</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Energía Eólica</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -3537,7 +3537,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3547,17 +3547,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Sector Comercial, Público y Residencial</t>
+          <t>Sector Industrial y Minero</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Energía Solar</t>
+          <t>Gas de Refinería</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3569,7 +3569,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3579,29 +3579,29 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Sector Comercial, Público y Residencial</t>
+          <t>Sector Industrial y Minero</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Biogás</t>
+          <t>Coque de Petróleo</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>107.84</t>
+          <t>2326.09</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3611,17 +3611,17 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Sector Comercial, Público y Residencial</t>
+          <t>Sector Industrial y Minero</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Geotermia</t>
+          <t>D.I. de Petróleo</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3633,7 +3633,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3643,29 +3643,29 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Sector Comercial, Público y Residencial</t>
+          <t>Sector Industrial y Minero</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Electricidad</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Electricidad</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>4564.5</t>
+          <t>40695.2</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3675,29 +3675,29 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Sector Comercial, Público y Residencial</t>
+          <t>Sector Industrial y Minero</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Derivados De Carbón</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Petróleo Combustible</t>
+          <t>Coque Mineral</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>59.12</t>
+          <t>59.02</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3707,29 +3707,29 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Sector Comercial, Público y Residencial</t>
+          <t>Sector Industrial y Minero</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Derivados De Carbón</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Gasolina de motor</t>
+          <t>Gas Coque</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>622.32</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3739,29 +3739,29 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Sector Comercial, Público y Residencial</t>
+          <t>Sector Industrial y Minero</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Derivados De Carbón</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Kerosene</t>
+          <t>Alquitrán</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>1324.25</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3771,29 +3771,29 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Sector Comercial, Público y Residencial</t>
+          <t>Sector Industrial y Minero</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Derivados De Carbón</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Gas Licuado</t>
+          <t>Gas de Altos Hornos</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>12972.86</t>
+          <t>84.11</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3803,29 +3803,29 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Sector Comercial, Público y Residencial</t>
+          <t>Sector Industrial y Minero</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Gas Corriente</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Gasolina de Aviación</t>
+          <t>Gas Corriente</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3835,29 +3835,29 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Sector Comercial, Público y Residencial</t>
+          <t>Sector Industrial y Minero</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Metanol</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Kerosene de Aviación</t>
+          <t>Metanol</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>11.09</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3867,17 +3867,17 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Sector Comercial, Público y Residencial</t>
+          <t>Sector Energético: Auto Consumo</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Petróleo Crudo</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -3889,7 +3889,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3899,29 +3899,29 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Sector Comercial, Público y Residencial</t>
+          <t>Sector Energético: Auto Consumo</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Gas de Refinería</t>
+          <t>Gas Natural</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>4233.13</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3931,17 +3931,17 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Sector Comercial, Público y Residencial</t>
+          <t>Sector Energético: Auto Consumo</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Coque de Petróleo</t>
+          <t>Carbón</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -3953,7 +3953,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3963,17 +3963,17 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Sector Comercial, Público y Residencial</t>
+          <t>Sector Energético: Auto Consumo</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>D.I. de Petróleo</t>
+          <t>Biomasa</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -3985,7 +3985,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3995,29 +3995,29 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Sector Comercial, Público y Residencial</t>
+          <t>Sector Energético: Auto Consumo</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Electricidad</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Electricidad</t>
+          <t>Energía Hídrica</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>22234.8</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4027,17 +4027,17 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Sector Comercial, Público y Residencial</t>
+          <t>Sector Energético: Auto Consumo</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Derivados De Carbón</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Coque Mineral</t>
+          <t>Energía Eólica</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4049,7 +4049,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4059,17 +4059,17 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Sector Comercial, Público y Residencial</t>
+          <t>Sector Energético: Auto Consumo</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Derivados De Carbón</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Gas Coque</t>
+          <t>Energía Solar</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4081,7 +4081,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4091,17 +4091,17 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Sector Comercial, Público y Residencial</t>
+          <t>Sector Energético: Auto Consumo</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Derivados De Carbón</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Alquitrán</t>
+          <t>Biogás</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4113,7 +4113,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4123,17 +4123,17 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Sector Comercial, Público y Residencial</t>
+          <t>Sector Energético: Auto Consumo</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Derivados De Carbón</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Gas de Altos Hornos</t>
+          <t>Geotermia</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4145,7 +4145,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4155,29 +4155,29 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Sector Comercial, Público y Residencial</t>
+          <t>Sector Energético: Auto Consumo</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Gas Corriente</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Gas Corriente</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>52.2</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4187,29 +4187,29 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Sector Comercial, Público y Residencial</t>
+          <t>Sector Energético: Auto Consumo</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Metanol</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Metanol</t>
+          <t>Petróleo Combustible</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>20.33</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4219,17 +4219,17 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Cons. No Energético - Industrial</t>
+          <t>Sector Energético: Auto Consumo</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Petróleo Crudo</t>
+          <t>Gasolina de motor</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4241,7 +4241,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4251,17 +4251,17 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Cons. No Energético - Industrial</t>
+          <t>Sector Energético: Auto Consumo</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Gas Natural</t>
+          <t>Kerosene</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4273,7 +4273,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4283,29 +4283,29 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Cons. No Energético - Industrial</t>
+          <t>Sector Energético: Auto Consumo</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Carbón</t>
+          <t>Gas Licuado</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>22.77</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4315,17 +4315,17 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Cons. No Energético - Industrial</t>
+          <t>Sector Energético: Auto Consumo</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Biomasa</t>
+          <t>Gasolina de Aviación</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -4337,7 +4337,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4347,17 +4347,17 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Cons. No Energético - Industrial</t>
+          <t>Sector Energético: Auto Consumo</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Energía Hídrica</t>
+          <t>Kerosene de Aviación</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -4369,7 +4369,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4379,17 +4379,17 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Cons. No Energético - Industrial</t>
+          <t>Sector Energético: Auto Consumo</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Energía Eólica</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4401,7 +4401,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4411,29 +4411,29 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Cons. No Energético - Industrial</t>
+          <t>Sector Energético: Auto Consumo</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Energía Solar</t>
+          <t>Gas de Refinería</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.28</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4443,17 +4443,17 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Cons. No Energético - Industrial</t>
+          <t>Sector Energético: Auto Consumo</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Biogás</t>
+          <t>Coque de Petróleo</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -4465,7 +4465,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4475,29 +4475,29 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Cons. No Energético - Industrial</t>
+          <t>Sector Energético: Auto Consumo</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Geotermia</t>
+          <t>D.I. de Petróleo</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1853.47</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4507,29 +4507,29 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Cons. No Energético - Industrial</t>
+          <t>Sector Energético: Auto Consumo</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Electricidad</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Electricidad</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2758.9</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4539,17 +4539,17 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Cons. No Energético - Industrial</t>
+          <t>Sector Energético: Auto Consumo</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Derivados De Carbón</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Petróleo Combustible</t>
+          <t>Coque Mineral</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -4561,7 +4561,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4571,29 +4571,29 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Cons. No Energético - Industrial</t>
+          <t>Sector Energético: Auto Consumo</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Derivados De Carbón</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Gasolina de motor</t>
+          <t>Gas Coque</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>217.58</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4603,29 +4603,29 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Cons. No Energético - Industrial</t>
+          <t>Sector Energético: Auto Consumo</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Derivados De Carbón</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Kerosene</t>
+          <t>Alquitrán</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>149.58</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4635,29 +4635,29 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Cons. No Energético - Industrial</t>
+          <t>Sector Energético: Auto Consumo</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Derivados De Carbón</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Gas Licuado</t>
+          <t>Gas de Altos Hornos</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>548.44</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4667,17 +4667,17 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Cons. No Energético - Industrial</t>
+          <t>Sector Energético: Auto Consumo</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Gas Corriente</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Gasolina de Aviación</t>
+          <t>Gas Corriente</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -4689,7 +4689,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4699,17 +4699,17 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Cons. No Energético - Industrial</t>
+          <t>Sector Energético: Auto Consumo</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Metanol</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Kerosene de Aviación</t>
+          <t>Metanol</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -4721,7 +4721,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4736,12 +4736,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Petróleo Crudo</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -4753,7 +4753,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4768,12 +4768,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Gas de Refinería</t>
+          <t>Gas Natural</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -4785,7 +4785,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4800,12 +4800,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Coque de Petróleo</t>
+          <t>Carbón</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -4817,7 +4817,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4832,24 +4832,24 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>D.I. de Petróleo</t>
+          <t>Biomasa</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2054.09</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4864,12 +4864,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Electricidad</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Electricidad</t>
+          <t>Energía Hídrica</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -4881,7 +4881,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4896,12 +4896,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Derivados De Carbón</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Coque Mineral</t>
+          <t>Energía Eólica</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -4913,7 +4913,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4928,12 +4928,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Derivados De Carbón</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Gas Coque</t>
+          <t>Energía Solar</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -4945,7 +4945,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4960,12 +4960,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Derivados De Carbón</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Alquitrán</t>
+          <t>Biogás</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -4977,7 +4977,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4992,12 +4992,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Derivados De Carbón</t>
+          <t>Energéticos Primarios</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Gas de Altos Hornos</t>
+          <t>Geotermia</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -5009,7 +5009,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5024,12 +5024,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Gas Corriente</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Gas Corriente</t>
+          <t>Petróleo Diesel</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5041,7 +5041,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5056,12 +5056,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Metanol</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Metanol</t>
+          <t>Petróleo Combustible</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -5073,7 +5073,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5083,17 +5083,17 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Sector Energético: Auto Consumo</t>
+          <t>Cons. No Energético - Industrial</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Petróleo Crudo</t>
+          <t>Gasolina de motor</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -5105,7 +5105,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5115,29 +5115,29 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Sector Energético: Auto Consumo</t>
+          <t>Cons. No Energético - Industrial</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Gas Natural</t>
+          <t>Kerosene</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>3569.83</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5147,17 +5147,17 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Sector Energético: Auto Consumo</t>
+          <t>Cons. No Energético - Industrial</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Carbón</t>
+          <t>Gas Licuado</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5169,7 +5169,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5179,17 +5179,17 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Sector Energético: Auto Consumo</t>
+          <t>Cons. No Energético - Industrial</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Biomasa</t>
+          <t>Gasolina de Aviación</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5201,7 +5201,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5211,17 +5211,17 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Sector Energético: Auto Consumo</t>
+          <t>Cons. No Energético - Industrial</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Energía Hídrica</t>
+          <t>Kerosene de Aviación</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5233,7 +5233,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5243,17 +5243,17 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Sector Energético: Auto Consumo</t>
+          <t>Cons. No Energético - Industrial</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Energía Eólica</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -5265,7 +5265,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5275,17 +5275,17 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Sector Energético: Auto Consumo</t>
+          <t>Cons. No Energético - Industrial</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Energía Solar</t>
+          <t>Gas de Refinería</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -5297,7 +5297,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5307,17 +5307,17 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Sector Energético: Auto Consumo</t>
+          <t>Cons. No Energético - Industrial</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Biogás</t>
+          <t>Coque de Petróleo</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -5329,7 +5329,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5339,29 +5339,29 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Sector Energético: Auto Consumo</t>
+          <t>Cons. No Energético - Industrial</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Energéticos Primarios</t>
+          <t>Derivados De Petróleo</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Geotermia</t>
+          <t>D.I. de Petróleo</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1914.76</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5371,29 +5371,29 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Sector Energético: Auto Consumo</t>
+          <t>Cons. No Energético - Industrial</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Electricidad</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Petróleo Diesel</t>
+          <t>Electricidad</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>10.59</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5403,17 +5403,17 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Sector Energético: Auto Consumo</t>
+          <t>Cons. No Energético - Industrial</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Derivados De Carbón</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Kerosene</t>
+          <t>Coque Mineral</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -5425,7 +5425,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5435,17 +5435,17 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Sector Energético: Auto Consumo</t>
+          <t>Cons. No Energético - Industrial</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Derivados De Carbón</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Coque de Petróleo</t>
+          <t>Gas Coque</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -5457,7 +5457,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -5467,29 +5467,29 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Sector Energético: Auto Consumo</t>
+          <t>Cons. No Energético - Industrial</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Derivados De Petróleo</t>
+          <t>Derivados De Carbón</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>D.I. de Petróleo</t>
+          <t>Alquitrán</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>1097.87</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5499,7 +5499,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Sector Energético: Auto Consumo</t>
+          <t>Cons. No Energético - Industrial</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5509,7 +5509,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Coque Mineral</t>
+          <t>Gas de Altos Hornos</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -5521,7 +5521,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5531,29 +5531,29 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Sector Energético: Auto Consumo</t>
+          <t>Cons. No Energético - Industrial</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Derivados De Carbón</t>
+          <t>Gas Corriente</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Alquitrán</t>
+          <t>Gas Corriente</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>151.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5563,17 +5563,17 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Sector Energético: Auto Consumo</t>
+          <t>Cons. No Energético - Industrial</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Gas Corriente</t>
+          <t>Metanol</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Gas Corriente</t>
+          <t>Metanol</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
